--- a/File_names_2013-19.xlsx
+++ b/File_names_2013-19.xlsx
@@ -12,18 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="587">
+  <si>
+    <t>Copy of ENG45688.RAW</t>
+  </si>
+  <si>
+    <t>cycle_04_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neutron_data </t>
+  </si>
   <si>
     <t>Filename</t>
   </si>
   <si>
-    <t>Copy of ENG45688.RAW</t>
-  </si>
-  <si>
-    <t>cycle_04_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutron_data </t>
+    <t>Copy of ENG45995_Strain.txt</t>
+  </si>
+  <si>
+    <t>strain_data</t>
+  </si>
+  <si>
+    <t>ENG44007_Current.txt</t>
+  </si>
+  <si>
+    <t>current_of_beam</t>
+  </si>
+  <si>
+    <t>ENG44007_dash_controls.txt</t>
+  </si>
+  <si>
+    <t>ENG44007_MonCounts.txt</t>
+  </si>
+  <si>
+    <t>number_of_nutrons_released</t>
+  </si>
+  <si>
+    <t>ENG44007_Status.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beam_status </t>
+  </si>
+  <si>
+    <t>ENG44007_Theta.txt</t>
+  </si>
+  <si>
+    <t>rotation</t>
   </si>
   <si>
     <t xml:space="preserve">cycle </t>
@@ -35,382 +68,496 @@
     <t>NG45688.RAW</t>
   </si>
   <si>
-    <t>Copy of ENG45995_Strain.txt</t>
-  </si>
-  <si>
-    <t>strain_data</t>
-  </si>
-  <si>
-    <t>ENG44007_Current.txt</t>
-  </si>
-  <si>
-    <t>current_of_beam</t>
-  </si>
-  <si>
-    <t>ENG44007_dash_controls.txt</t>
-  </si>
-  <si>
-    <t>ENG44007_MonCounts.txt</t>
-  </si>
-  <si>
-    <t>number_of_nutrons_released</t>
-  </si>
-  <si>
-    <t>ENG44007_Status.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beam_status </t>
-  </si>
-  <si>
-    <t>ENG44007_Theta.txt</t>
-  </si>
-  <si>
-    <t>rotation</t>
-  </si>
-  <si>
     <t>ENG44007_X.txt</t>
   </si>
   <si>
     <t>x_co</t>
   </si>
   <si>
+    <t>ENG44007_Y.txt</t>
+  </si>
+  <si>
     <t>NG45995_Strain.txt</t>
   </si>
   <si>
-    <t>ENG44007_Y.txt</t>
-  </si>
-  <si>
     <t>y_co</t>
   </si>
   <si>
     <t>ENG44007_Z.txt</t>
   </si>
   <si>
+    <t>z_co</t>
+  </si>
+  <si>
     <t>RAW</t>
   </si>
   <si>
-    <t>z_co</t>
-  </si>
-  <si>
     <t>ENG44007.RAW</t>
   </si>
   <si>
+    <t>ENG44543_Slit_H.txt</t>
+  </si>
+  <si>
     <t>Current.txt</t>
   </si>
   <si>
-    <t>ENG44543_Slit_H.txt</t>
-  </si>
-  <si>
     <t>jaw_2_H_slit_position</t>
   </si>
   <si>
+    <t>ENG44543_Slit_V.txt</t>
+  </si>
+  <si>
+    <t>jaw_3_V_slit_position</t>
+  </si>
+  <si>
     <t>dash_controls.txt</t>
   </si>
   <si>
+    <t>ENG44543_Slit_X.txt</t>
+  </si>
+  <si>
+    <t>jaw_3_X_slit_position</t>
+  </si>
+  <si>
+    <t>ENG44839_Temp4.txt</t>
+  </si>
+  <si>
+    <t>measured_temperature</t>
+  </si>
+  <si>
     <t>MonCounts.txt</t>
   </si>
   <si>
+    <t>ENG44859_Load.txt</t>
+  </si>
+  <si>
+    <t>load_data</t>
+  </si>
+  <si>
+    <t>ENG44859_Pos.txt</t>
+  </si>
+  <si>
+    <t>rig_position</t>
+  </si>
+  <si>
+    <t>ENG44859_Strain.txt</t>
+  </si>
+  <si>
     <t>Status.txt</t>
   </si>
   <si>
+    <t>ENG44888_Temperature.txt</t>
+  </si>
+  <si>
+    <t>set_temperature</t>
+  </si>
+  <si>
+    <t>ENG44905_Position.txt</t>
+  </si>
+  <si>
+    <t>ENG45376_RUN.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_cyba_a.txt</t>
+  </si>
+  <si>
     <t>Theta.txt</t>
   </si>
   <si>
+    <t>cycle_13_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle_a  </t>
+  </si>
+  <si>
+    <t>ENGINX00203995_cyba_b.txt</t>
+  </si>
+  <si>
+    <t>angle_b</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_cyba_c.txt</t>
+  </si>
+  <si>
+    <t>angle_c</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_ICPdebug.txt</t>
+  </si>
+  <si>
     <t>X.txt</t>
   </si>
   <si>
-    <t>ENG44543_Slit_V.txt</t>
+    <t>ENGINX00203995_ICPevent.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_slitpos.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_w.txt</t>
   </si>
   <si>
     <t>Y.txt</t>
   </si>
   <si>
-    <t>jaw_3_V_slit_position</t>
-  </si>
-  <si>
-    <t>ENG44543_Slit_X.txt</t>
+    <t>ENGINX00203995_x.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00203995_y.txt</t>
   </si>
   <si>
     <t>Z.txt</t>
   </si>
   <si>
-    <t>jaw_3_X_slit_position</t>
-  </si>
-  <si>
-    <t>ENG44839_Temp4.txt</t>
+    <t>ENGINX00203995_z.txt</t>
   </si>
   <si>
     <t>Slit_H.txt</t>
   </si>
   <si>
-    <t>measured_temperature</t>
-  </si>
-  <si>
-    <t>ENG44859_Load.txt</t>
-  </si>
-  <si>
-    <t>load_data</t>
+    <t>ENGINX00203995.nxs</t>
+  </si>
+  <si>
+    <t>ENGINX00203995.raw</t>
   </si>
   <si>
     <t>Slit_V.txt</t>
   </si>
   <si>
-    <t>ENG44859_Pos.txt</t>
-  </si>
-  <si>
-    <t>rig_position</t>
+    <t>ENGINX00205482_Jaws1_H.txt</t>
+  </si>
+  <si>
+    <t>jaw_1_H_slit_position</t>
+  </si>
+  <si>
+    <t>ENGINX00205482_Jaws1_V.txt</t>
   </si>
   <si>
     <t>Slit_X.txt</t>
   </si>
   <si>
-    <t>ENG44859_Strain.txt</t>
+    <t>jaw_1_V_slit_position</t>
+  </si>
+  <si>
+    <t>ENGINX00205482_Jaws2_H.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205482_Jaws2_V.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_crosshead_pos.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205710_strain.txt</t>
   </si>
   <si>
     <t>Temp4.txt</t>
   </si>
   <si>
-    <t>ENG44888_Temperature.txt</t>
-  </si>
-  <si>
     <t>measured_temperature4</t>
   </si>
   <si>
-    <t>set_temperature</t>
-  </si>
-  <si>
-    <t>ENG44905_Position.txt</t>
+    <t>ENGINX00205710_stress.txt</t>
+  </si>
+  <si>
+    <t>stress_data</t>
   </si>
   <si>
     <t>Load.txt</t>
   </si>
   <si>
-    <t>ENG45376_RUN.txt</t>
+    <t>ENGINX00205711_slit_h.txt</t>
+  </si>
+  <si>
+    <t>jaw_3_H_slit_position</t>
   </si>
   <si>
     <t>Pos.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995_cyba_a.txt</t>
-  </si>
-  <si>
-    <t>cycle_13_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angle_a  </t>
+    <t>ENGINX00205711_slit_v.txt</t>
   </si>
   <si>
     <t>Strain.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995_cyba_b.txt</t>
-  </si>
-  <si>
-    <t>angle_b</t>
+    <t>ENGINX00205719_cryo_temp1.txt</t>
   </si>
   <si>
     <t>Temperature.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995_cyba_c.txt</t>
+    <t>cycle_13_2</t>
   </si>
   <si>
     <t>set_temperature1</t>
   </si>
   <si>
-    <t>angle_c</t>
+    <t>ENGINX00205719_cryo_temp2.txt</t>
   </si>
   <si>
     <t>Position.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995_ICPdebug.txt</t>
+    <t>ENGINX00205719_maxheaterOP1.txt</t>
   </si>
   <si>
     <t>RUN.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995_ICPevent.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00203995_slitpos.txt</t>
+    <t>ENGINX00205719_maxheaterOP2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_4.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_5.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00205719_TC_6.txt</t>
   </si>
   <si>
     <t>_copy.log</t>
   </si>
   <si>
-    <t>ENGINX00203995_w.txt</t>
+    <t>ENGINX00205903_FURNACE_TEMP1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_funace_pwr.txt</t>
   </si>
   <si>
     <t>to cycle_04_1.lnk</t>
   </si>
   <si>
-    <t>ENGINX00203995_x.txt</t>
+    <t>furnace_power</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_funace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00206374_furnace_pwr.txt</t>
   </si>
   <si>
     <t>nxs</t>
   </si>
   <si>
-    <t>ENGINX00203995_y.txt</t>
+    <t>ENGINX00206374_furnace.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_crosshead_pos.txt-1.txt</t>
   </si>
   <si>
     <t>raw</t>
   </si>
   <si>
-    <t>ENGINX00203995_z.txt</t>
+    <t>cycle_13_3</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_furnace_pwr.txt-1.txt</t>
   </si>
   <si>
     <t>cyba_a.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995.nxs</t>
+    <t>ENGINX00210605_furnace.txt-1.txt</t>
   </si>
   <si>
     <t>cyba_b.txt</t>
   </si>
   <si>
-    <t>ENGINX00203995.raw</t>
-  </si>
-  <si>
-    <t>ENGINX00205482_Jaws1_H.txt</t>
+    <t>ENGINX00210605_slit_h.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_slit_v.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_slitpos.txt-1.txt</t>
   </si>
   <si>
     <t>cyba_c.txt</t>
   </si>
   <si>
-    <t>jaw_1_H_slit_position</t>
-  </si>
-  <si>
-    <t>ENGINX00205482_Jaws1_V.txt</t>
+    <t>ENGINX00210605_strain.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_stress.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_w.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_x.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_y.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210605_z.txt-1.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00210944_Loadcell.txt</t>
+  </si>
+  <si>
+    <t>cycle_13_4</t>
+  </si>
+  <si>
+    <t>ENGINX00211318_Ref_sample.txt</t>
   </si>
   <si>
     <t>ICPdebug.txt</t>
   </si>
   <si>
-    <t>jaw_1_V_slit_position</t>
-  </si>
-  <si>
-    <t>ENGINX00205482_Jaws2_H.txt</t>
+    <t>ENGINX00211700_AluminiumN.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00211700_AluminiumS.txt</t>
   </si>
   <si>
     <t>ICPevent.txt</t>
   </si>
   <si>
-    <t>ENGINX00205482_Jaws2_V.txt</t>
-  </si>
-  <si>
     <t>slitpos.txt</t>
   </si>
   <si>
-    <t>ENGINX00205710_crosshead_pos.txt</t>
+    <t>ENGINX00211700_Steel2.txt</t>
   </si>
   <si>
     <t>w.txt</t>
   </si>
   <si>
-    <t>ENGINX00205710_strain.txt</t>
-  </si>
-  <si>
     <t>x.txt</t>
   </si>
   <si>
-    <t>ENGINX00205710_stress.txt</t>
+    <t>ENGINX00211865_Real_furnace.txt</t>
   </si>
   <si>
     <t>y.txt</t>
   </si>
   <si>
-    <t>stress_data</t>
-  </si>
-  <si>
-    <t>ENGINX00205711_slit_h.txt</t>
+    <t>ENGINX00211865_Real_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00214102_Extensometer.txt</t>
+  </si>
+  <si>
+    <t>cycle_13_5</t>
+  </si>
+  <si>
+    <t>Extensometer_data</t>
+  </si>
+  <si>
+    <t>ENGINX00214102_Sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00215964_jaws1_v.txt</t>
   </si>
   <si>
     <t>z.txt</t>
   </si>
   <si>
-    <t>jaw_3_H_slit_position</t>
-  </si>
-  <si>
-    <t>ENGINX00205711_slit_v.txt</t>
+    <t>ENGINX00215964_jaws2_h.txt</t>
   </si>
   <si>
     <t>Jaws1_H.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_cryo_temp1.txt</t>
-  </si>
-  <si>
-    <t>cycle_13_2</t>
-  </si>
-  <si>
     <t>Jaws1_V.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_cryo_temp2.txt</t>
+    <t>ENGINX00215964_jaws2_v.txt</t>
   </si>
   <si>
     <t>Jaws2_H.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_maxheaterOP1.txt</t>
+    <t>ENGINX00219886_Jaws1_h.txt</t>
+  </si>
+  <si>
+    <t>cycle_14_1</t>
   </si>
   <si>
     <t>Jaws2_V.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_maxheaterOP2.txt</t>
-  </si>
-  <si>
     <t>C6_MASTER_FREQUENCY.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_TC_2.txt</t>
-  </si>
-  <si>
     <t>C6_master_frequency</t>
   </si>
   <si>
     <t>C6_MASTER_PHASE.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_TC_4.txt</t>
+    <t>ENGINX00219886_Jaws1_v.txt</t>
   </si>
   <si>
     <t>C6_master_phase</t>
   </si>
   <si>
+    <t>ENGINX00219886_Jaws2_h.txt</t>
+  </si>
+  <si>
     <t>C6_SLAVE_FREQUENCY.txt</t>
   </si>
   <si>
-    <t>ENGINX00205719_TC_5.txt</t>
-  </si>
-  <si>
     <t>C6_slave_frequency</t>
   </si>
   <si>
+    <t>ENGINX00219886_Jaws2_v.txt</t>
+  </si>
+  <si>
     <t>C6_SLAVE_PHASE.txt</t>
   </si>
   <si>
     <t>C6_slave_phase</t>
   </si>
   <si>
-    <t>ENGINX00205719_TC_6.txt</t>
+    <t>ENGINX00221447.raw.old</t>
+  </si>
+  <si>
+    <t>ENGINX00221771.raw.keep</t>
+  </si>
+  <si>
+    <t>ENGINX00224970_Jaw1_H.txt</t>
+  </si>
+  <si>
+    <t>cycle_14_2</t>
   </si>
   <si>
     <t>C9_MASTER_FREQUENCY.txt</t>
   </si>
   <si>
+    <t>ENGINX00224970_Jaw1_V.txt</t>
+  </si>
+  <si>
     <t>C9_master_frequency</t>
   </si>
   <si>
+    <t>ENGINX00224970_Jaw2_H.txt</t>
+  </si>
+  <si>
     <t>C9_MASTER_PHASE.txt</t>
   </si>
   <si>
+    <t>ENGINX00224970_Jaw2_V.txt</t>
+  </si>
+  <si>
     <t>C9_master_phase</t>
   </si>
   <si>
-    <t>ENGINX00205903_FURNACE_TEMP1.txt</t>
+    <t>ENGINX00225130_Thermocouple_0.txt</t>
+  </si>
+  <si>
+    <t>thermocouple_data</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Thermocouple_1.txt</t>
   </si>
   <si>
     <t>C9_SLAVE_FREQUENCY.txt</t>
@@ -419,48 +566,81 @@
     <t>C9_slave_frequency</t>
   </si>
   <si>
+    <t>ENGINX00225130_Thermocouple_2.txt</t>
+  </si>
+  <si>
     <t>C9_SLAVE_PHASE.txt</t>
   </si>
   <si>
+    <t>ENGINX00225130_Thermocouple_3.txt</t>
+  </si>
+  <si>
     <t>C9_slave_phase</t>
   </si>
   <si>
-    <t>ENGINX00206374_funace_pwr.txt</t>
+    <t>ENGINX00225130_Thermocouple_4.txt</t>
   </si>
   <si>
     <t>crosshead_pos.txt</t>
   </si>
   <si>
-    <t>furnace_power</t>
+    <t>ENGINX00225130_Thermocouple_5.txt</t>
   </si>
   <si>
     <t>strain.txt</t>
   </si>
   <si>
-    <t>ENGINX00206374_funace.txt</t>
+    <t>ENGINX00225130_Thermocouple_6.txt</t>
   </si>
   <si>
     <t>stress.txt</t>
   </si>
   <si>
+    <t>ENGINX00225130_Thermocouple_7.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00225130_Transmission.txt</t>
+  </si>
+  <si>
     <t>slit_h.txt</t>
   </si>
   <si>
-    <t>ENGINX00206374_furnace_pwr.txt</t>
+    <t>transmission_data</t>
+  </si>
+  <si>
+    <t>ENGINX00225392_Furnace.txt</t>
   </si>
   <si>
     <t>slit_v.txt</t>
   </si>
   <si>
+    <t>ENGINX00226956_Furnace_pwr.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00226956_Furnace_ramp.txt</t>
+  </si>
+  <si>
+    <t>furnace_ramp_rate</t>
+  </si>
+  <si>
     <t>cryo_temp1.txt</t>
   </si>
   <si>
+    <t>ENGINX00228026.log</t>
+  </si>
+  <si>
+    <t>cycle_14_3</t>
+  </si>
+  <si>
+    <t>ENGINX00228027_Cryo_sample.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228030_cryo_Sample.txt</t>
+  </si>
+  <si>
     <t>measured_temperature1</t>
   </si>
   <si>
-    <t>ENGINX00206374_furnace.txt</t>
-  </si>
-  <si>
     <t>cryo_temp2.txt</t>
   </si>
   <si>
@@ -470,12 +650,6 @@
     <t>maxheaterOP1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_crosshead_pos.txt-1.txt</t>
-  </si>
-  <si>
-    <t>cycle_13_3</t>
-  </si>
-  <si>
     <t>maxheaterOP2.txt</t>
   </si>
   <si>
@@ -485,9 +659,6 @@
     <t>TC_2.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_furnace_pwr.txt-1.txt</t>
-  </si>
-  <si>
     <t>TC_4.txt</t>
   </si>
   <si>
@@ -497,64 +668,136 @@
     <t>measured_temperature5</t>
   </si>
   <si>
-    <t>ENGINX00210605_furnace.txt-1.txt</t>
-  </si>
-  <si>
     <t>TC_6.txt</t>
   </si>
   <si>
     <t>measured_temperature6</t>
   </si>
   <si>
+    <t>ENGINX00228031_Heater1.txt</t>
+  </si>
+  <si>
     <t>FURNACE_TEMP1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_slit_h.txt-1.txt</t>
+    <t>ENGINX00228031_Heater2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00228032_Cyba_a.txt</t>
   </si>
   <si>
     <t>funace.txt</t>
   </si>
   <si>
+    <t>angle_a</t>
+  </si>
+  <si>
+    <t>ENGINX00228032_Cyba_b.txt</t>
+  </si>
+  <si>
     <t>funace_pwr.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_slit_v.txt-1.txt</t>
+    <t>ENGINX00228032_Cyba_c.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232440_Jaws2_W.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00232449_Jaws1_E.txt</t>
   </si>
   <si>
     <t>furnace.txt</t>
   </si>
   <si>
+    <t>ENGINX00232449_Jaws1_W.txt</t>
+  </si>
+  <si>
     <t>furnace_pwr.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_slitpos.txt-1.txt</t>
+    <t>ENGINX00232449_Jaws2_E.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00236904_Lamp.txt</t>
   </si>
   <si>
     <t>C6_MASTER_FREQUENCY.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_strain.txt-1.txt</t>
+    <t>lamp_data</t>
+  </si>
+  <si>
+    <t>ENGINX00240875_Extensometer_TC.txt</t>
+  </si>
+  <si>
+    <t>cycle_15_1</t>
+  </si>
+  <si>
+    <t>Extensometer_temperatue</t>
+  </si>
+  <si>
+    <t>ENGINX00240875_Load_cell_TC.txt</t>
+  </si>
+  <si>
+    <t>load_cell_temperatue</t>
   </si>
   <si>
     <t>C6_MASTER_PHASE.txt-1.txt</t>
   </si>
   <si>
+    <t>ENGINX00242909_Hydraulics.txt</t>
+  </si>
+  <si>
+    <t>cycle_15_2</t>
+  </si>
+  <si>
+    <t>hydraulics_data</t>
+  </si>
+  <si>
+    <t>ENGINX00243060_Hydralics.txt</t>
+  </si>
+  <si>
     <t>C6_SLAVE_FREQUENCY.txt-1.txt</t>
   </si>
   <si>
+    <t>ENGINX00243060_Loacell.txt</t>
+  </si>
+  <si>
     <t>C6_SLAVE_PHASE.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_stress.txt-1.txt</t>
+    <t>ENGINX00244366_Cryo_L.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00244366_Cryo_R.txt</t>
   </si>
   <si>
     <t>C9_MASTER_FREQUENCY.txt-1.txt</t>
   </si>
   <si>
+    <t>ENGINX00246045_BeamCurrent.txt</t>
+  </si>
+  <si>
+    <t>cycle_15_3</t>
+  </si>
+  <si>
+    <t>ENGINX00246575_Furnace_rate.txt</t>
+  </si>
+  <si>
+    <t>temperature_ramp_rate</t>
+  </si>
+  <si>
     <t>C9_MASTER_PHASE.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_w.txt-1.txt</t>
+    <t>ENGINX00254493_W_Setpoint.txt</t>
+  </si>
+  <si>
+    <t>cycle_15_4</t>
+  </si>
+  <si>
+    <t>ENGINX00257558_Output_Current.txt</t>
   </si>
   <si>
     <t>C9_SLAVE_FREQUENCY.txt-1.txt</t>
@@ -563,178 +806,175 @@
     <t>C9_SLAVE_PHASE.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_x.txt-1.txt</t>
+    <t>cycle_16_1</t>
+  </si>
+  <si>
+    <t>sample_current_set</t>
   </si>
   <si>
     <t>crosshead_pos.txt-1.txt</t>
   </si>
   <si>
+    <t>ENGINX00257558_Output_Voltage.txt</t>
+  </si>
+  <si>
     <t>furnace.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_y.txt-1.txt</t>
+    <t>sample_voltage_set</t>
   </si>
   <si>
     <t>furnace_pwr.txt-1.txt</t>
   </si>
   <si>
+    <t>ENGINX00257558_Readback_voltage.txt</t>
+  </si>
+  <si>
+    <t>sample_voltage</t>
+  </si>
+  <si>
     <t>slitpos.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210605_z.txt-1.txt</t>
+    <t>ENGINX00257558_Voltage.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00257590_Cryo_Left.txt</t>
   </si>
   <si>
     <t>slit_h.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00210944_Loadcell.txt</t>
-  </si>
-  <si>
-    <t>cycle_13_4</t>
+    <t>ENGINX00257590_Cryo_Right.txt</t>
   </si>
   <si>
     <t>slit_v.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00211318_Ref_sample.txt</t>
+    <t>ENGINX00257591_Read_Current.txt</t>
   </si>
   <si>
     <t>strain.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00211700_AluminiumN.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00211700_AluminiumS.txt</t>
+    <t>sample_current</t>
   </si>
   <si>
     <t>stress.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00211700_Steel2.txt</t>
+    <t>ENGINX00257591_Read_Voltage.txt</t>
   </si>
   <si>
     <t>w.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00211865_Real_furnace.txt</t>
-  </si>
-  <si>
     <t>x.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00211865_Real_pwr.txt</t>
+    <t>ENGINX00258498_furnace_rate.txt</t>
   </si>
   <si>
     <t>y.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00214102_Extensometer.txt</t>
-  </si>
-  <si>
-    <t>cycle_13_5</t>
-  </si>
-  <si>
-    <t>Extensometer_data</t>
+    <t>ENGINX00260062_Chi.txt</t>
+  </si>
+  <si>
+    <t>cycle_16_3</t>
   </si>
   <si>
     <t>z.txt-1.txt</t>
   </si>
   <si>
-    <t>ENGINX00214102_Sample.txt</t>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>ENGINX00260062_Phi.txt</t>
   </si>
   <si>
     <t>Loadcell.txt</t>
   </si>
   <si>
-    <t>ENGINX00215964_jaws1_h.txt</t>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>ENGINX00263771_LoadcellTmp.txt</t>
+  </si>
+  <si>
+    <t>cycle_16_4</t>
+  </si>
+  <si>
+    <t>load_cell_temp</t>
   </si>
   <si>
     <t>Ref_sample.txt</t>
   </si>
   <si>
-    <t>ENGINX00215964_jaws1_v.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00215964_jaws2_h.txt</t>
+    <t>ENGINX00266670_Stress.txt</t>
+  </si>
+  <si>
+    <t>cycle_16_5</t>
   </si>
   <si>
     <t>AluminiumN.txt</t>
   </si>
   <si>
-    <t>ENGINX00215964_jaws2_v.txt</t>
+    <t>ENGINX00267621_Beam.txt</t>
   </si>
   <si>
     <t>AluminiumS.txt</t>
   </si>
   <si>
-    <t>ENGINX00219886_Jaws1_h.txt</t>
+    <t>ENGINX00269237.log;1</t>
   </si>
   <si>
     <t>Steel2.txt</t>
   </si>
   <si>
-    <t>cycle_14_1</t>
-  </si>
-  <si>
-    <t>ENGINX00219886_Jaws1_v.txt</t>
+    <t>ENGINX00272232_dzero_TC.txt</t>
+  </si>
+  <si>
+    <t>cycle_17_1</t>
   </si>
   <si>
     <t>Real_furnace.txt</t>
   </si>
   <si>
-    <t>ENGINX00219886_Jaws2_h.txt</t>
+    <t>ENGINX00272299_TC3.txt</t>
   </si>
   <si>
     <t>Real_pwr.txt</t>
   </si>
   <si>
-    <t>ENGINX00219886_Jaws2_v.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00221447.raw.old</t>
-  </si>
-  <si>
     <t>Extensometer.txt</t>
   </si>
   <si>
-    <t>ENGINX00221771.raw.keep</t>
-  </si>
-  <si>
-    <t>ENGINX00224970_Jaw1_H.txt</t>
+    <t>ENGINX00272299_TC4.txt</t>
   </si>
   <si>
     <t>Sample.txt</t>
   </si>
   <si>
-    <t>cycle_14_2</t>
-  </si>
-  <si>
-    <t>ENGINX00224970_Jaw1_V.txt</t>
+    <t>ENGINX00275375_ICPputlog.txt</t>
+  </si>
+  <si>
+    <t>cycle_17_2</t>
   </si>
   <si>
     <t>jaws1_h.txt</t>
   </si>
   <si>
-    <t>ENGINX00224970_Jaw2_H.txt</t>
+    <t>ENGINX00275777_jaws1_hgap.txt</t>
   </si>
   <si>
     <t>jaws1_v.txt</t>
   </si>
   <si>
-    <t>ENGINX00224970_Jaw2_V.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00225130_Thermocouple_0.txt</t>
-  </si>
-  <si>
     <t>jaws2_h.txt</t>
   </si>
   <si>
-    <t>thermocouple_data</t>
-  </si>
-  <si>
-    <t>ENGINX00225130_Thermocouple_1.txt</t>
+    <t>ENGINX00275777_jaws2_hgap.txt</t>
   </si>
   <si>
     <t>jaws2_v.txt</t>
@@ -743,124 +983,109 @@
     <t>jaw_2_V_slit_position</t>
   </si>
   <si>
-    <t>ENGINX00225130_Thermocouple_2.txt</t>
+    <t>ENGINX00275777_jaws3_hgap.txt</t>
   </si>
   <si>
     <t>Jaws1_h.txt</t>
   </si>
   <si>
-    <t>ENGINX00225130_Thermocouple_3.txt</t>
-  </si>
-  <si>
     <t>Jaws1_v.txt</t>
   </si>
   <si>
-    <t>ENGINX00225130_Thermocouple_4.txt</t>
+    <t>ENGINX00275777_jaws3_vgap.txt</t>
   </si>
   <si>
     <t>Jaws2_h.txt</t>
   </si>
   <si>
-    <t>ENGINX00225130_Thermocouple_5.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00225130_Thermocouple_6.txt</t>
+    <t>ENGINX00275777_North_X_hlim.txt</t>
   </si>
   <si>
     <t>Jaws2_v.txt</t>
   </si>
   <si>
-    <t>ENGINX00225130_Thermocouple_7.txt</t>
+    <t>north_colomators_h_set</t>
   </si>
   <si>
     <t>raw.old</t>
   </si>
   <si>
-    <t>ENGINX00225130_Transmission.txt</t>
+    <t>ENGINX00275777_North_X_llim.txt</t>
   </si>
   <si>
     <t>raw.keep</t>
   </si>
   <si>
-    <t>transmission_data</t>
-  </si>
-  <si>
-    <t>ENGINX00225392_Furnace.txt</t>
+    <t>north_colomators_l_set</t>
   </si>
   <si>
     <t>Jaw1_H.txt</t>
   </si>
   <si>
-    <t>ENGINX00226956_Furnace_pwr.txt</t>
+    <t>ENGINX00275777_North_X.txt</t>
+  </si>
+  <si>
+    <t>north_colomators_position</t>
   </si>
   <si>
     <t>Jaw1_V.txt</t>
   </si>
   <si>
-    <t>ENGINX00226956_Furnace_ramp.txt</t>
-  </si>
-  <si>
-    <t>furnace_ramp_rate</t>
+    <t>ENGINX00275777_S_position.txt</t>
   </si>
   <si>
     <t>Jaw2_H.txt</t>
   </si>
   <si>
-    <t>ENGINX00228026.log</t>
-  </si>
-  <si>
-    <t>cycle_14_3</t>
-  </si>
-  <si>
-    <t>ENGINX00228027_Cryo_sample.txt</t>
+    <t>slip_position</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_South_X_hlim.txt</t>
   </si>
   <si>
     <t>Jaw2_V.txt</t>
   </si>
   <si>
-    <t>ENGINX00228030_cryo_Sample.txt</t>
+    <t>south_colomators_h_set</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_South_X_llim.txt</t>
   </si>
   <si>
     <t>Thermocouple_0.txt</t>
   </si>
   <si>
+    <t>south_colomators_l_set</t>
+  </si>
+  <si>
     <t>Thermocouple_0</t>
   </si>
   <si>
-    <t>ENGINX00228031_Heater1.txt</t>
-  </si>
-  <si>
     <t>Thermocouple_1.txt</t>
   </si>
   <si>
-    <t>ENGINX00228031_Heater2.txt</t>
-  </si>
-  <si>
     <t>Thermocouple_1</t>
   </si>
   <si>
     <t>Thermocouple_2.txt</t>
   </si>
   <si>
-    <t>ENGINX00228032_Cyba_a.txt</t>
-  </si>
-  <si>
     <t>Thermocouple_2</t>
   </si>
   <si>
-    <t>angle_a</t>
+    <t>ENGINX00275777_South_X.txt</t>
   </si>
   <si>
     <t>Thermocouple_3.txt</t>
   </si>
   <si>
-    <t>ENGINX00228032_Cyba_b.txt</t>
+    <t>south_colomators_ position</t>
   </si>
   <si>
     <t>Thermocouple_3</t>
   </si>
   <si>
-    <t>ENGINX00228032_Cyba_c.txt</t>
+    <t>ENGINX00275777_W_position.txt</t>
   </si>
   <si>
     <t>Thermocouple_4.txt</t>
@@ -869,436 +1094,424 @@
     <t>Thermocouple_4</t>
   </si>
   <si>
+    <t>ENGINX00275777_X_position.txt</t>
+  </si>
+  <si>
     <t>Thermocouple_5.txt</t>
   </si>
   <si>
-    <t>ENGINX00232440_Jaws2_W.txt</t>
-  </si>
-  <si>
     <t>Thermocouple_5</t>
   </si>
   <si>
+    <t>ENGINX00275777_Y_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00275777_Z_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_amplitude.txt</t>
+  </si>
+  <si>
+    <t>amplitude_data</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_control_channel_string.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_control_channel.txt</t>
+  </si>
+  <si>
+    <t>constant_in_rig</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_cycles.txt</t>
+  </si>
+  <si>
+    <t>cycles_of_rig</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_frequency.txt</t>
+  </si>
+  <si>
+    <t>frequency_data</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_1.txt</t>
+  </si>
+  <si>
+    <t>heat_output(%)</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Max_output_3.txt</t>
+  </si>
+  <si>
     <t>Thermocouple_6.txt</t>
   </si>
   <si>
-    <t>ENGINX00232449_Jaws1_E.txt</t>
+    <t>ENGINX00276086_pos_step_time.txt</t>
+  </si>
+  <si>
+    <t>rig_step_time</t>
   </si>
   <si>
     <t>Thermocouple_6</t>
   </si>
   <si>
-    <t>ENGINX00232449_Jaws1_W.txt</t>
+    <t>ENGINX00276086_position.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Rampon_3.txt</t>
   </si>
   <si>
     <t>Thermocouple_7.txt</t>
   </si>
   <si>
+    <t>temperature_ramp_status</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Ramprate_3.txt</t>
+  </si>
+  <si>
     <t>Thermocouple_7</t>
   </si>
   <si>
-    <t>ENGINX00232449_Jaws2_E.txt</t>
+    <t>ENGINX00276086_strain_step_time.txt</t>
   </si>
   <si>
     <t>Transmission.txt</t>
   </si>
   <si>
-    <t>ENGINX00236904_Lamp.txt</t>
-  </si>
-  <si>
-    <t>lamp_data</t>
+    <t>strain_step_time</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_stress_step_time.txt</t>
+  </si>
+  <si>
+    <t>stress_step_time</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Temp_1.txt</t>
   </si>
   <si>
     <t>Furnace.txt</t>
   </si>
   <si>
-    <t>ENGINX00240875_Extensometer_TC.txt</t>
-  </si>
-  <si>
-    <t>cycle_15_1</t>
-  </si>
-  <si>
-    <t>Extensometer_temperatue</t>
+    <t>ENGINX00276086_Temp_2.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_Temp_3.txt</t>
   </si>
   <si>
     <t>Furnace_pwr.txt</t>
   </si>
   <si>
-    <t>ENGINX00240875_Load_cell_TC.txt</t>
-  </si>
-  <si>
-    <t>load_cell_temperatue</t>
+    <t>ENGINX00276086_wave_running.txt</t>
+  </si>
+  <si>
+    <t>wave_running</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_wave_start.txt</t>
   </si>
   <si>
     <t>Furnace_ramp.txt</t>
   </si>
   <si>
-    <t>ENGINX00242909_Hydraulics.txt</t>
-  </si>
-  <si>
-    <t>cycle_15_2</t>
-  </si>
-  <si>
-    <t>hydraulics_data</t>
+    <t>wave_start</t>
+  </si>
+  <si>
+    <t>ENGINX00276086_wave_type.txt</t>
+  </si>
+  <si>
+    <t>wave_type</t>
+  </si>
+  <si>
+    <t>ENGINX00276993_stressrig_go.txt</t>
   </si>
   <si>
     <t>log</t>
   </si>
   <si>
-    <t>ENGINX00243060_Hydralics.txt</t>
+    <t>asked_stress</t>
   </si>
   <si>
     <t>Cryo_sample.txt</t>
   </si>
   <si>
-    <t>ENGINX00243060_Loacell.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00244366_Cryo_L.txt</t>
+    <t>ENGINX00277208_Furnace_temp.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00277632_position_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>asked_position</t>
   </si>
   <si>
     <t>cryo_Sample.txt</t>
   </si>
   <si>
-    <t>ENGINX00244366_Cryo_R.txt</t>
+    <t>ENGINX00277632_strain_sp_rbv.txt</t>
+  </si>
+  <si>
+    <t>asked_strain</t>
   </si>
   <si>
     <t>Heater1.txt</t>
   </si>
   <si>
-    <t>ENGINX00246045_BeamCurrent.txt</t>
-  </si>
-  <si>
-    <t>cycle_15_3</t>
-  </si>
-  <si>
     <t>Heater2.txt</t>
   </si>
   <si>
-    <t>ENGINX00246575_Furnace_rate.txt</t>
-  </si>
-  <si>
-    <t>temperature_ramp_rate</t>
+    <t>ENGINX00277632_stress_sp_rbv.txt</t>
   </si>
   <si>
     <t>Cyba_a.txt</t>
   </si>
   <si>
-    <t>ENGINX00254493_W_Setpoint.txt</t>
-  </si>
-  <si>
-    <t>cycle_15_4</t>
+    <t>ENGINX00279181_PIRot.txt</t>
+  </si>
+  <si>
+    <t>PIRot</t>
   </si>
   <si>
     <t>Cyba_b.txt</t>
   </si>
   <si>
-    <t>ENGINX00257558_Output_Current.txt</t>
-  </si>
-  <si>
-    <t>cycle_16_1</t>
-  </si>
-  <si>
-    <t>sample_current_set</t>
-  </si>
-  <si>
-    <t>ENGINX00257558_Output_Voltage.txt</t>
+    <t>ENGINX00279182.zip</t>
+  </si>
+  <si>
+    <t>ENGINX00279273_DAE_lower_range.txt</t>
   </si>
   <si>
     <t>Cyba_c.txt</t>
   </si>
   <si>
-    <t>sample_voltage_set</t>
-  </si>
-  <si>
-    <t>ENGINX00257558_Readback_voltage.txt</t>
+    <t>DAE_lower_range</t>
+  </si>
+  <si>
+    <t>ENGINX00280374_Output_1.txt</t>
   </si>
   <si>
     <t>Jaws2_W.txt</t>
   </si>
   <si>
-    <t>sample_voltage</t>
-  </si>
-  <si>
-    <t>ENGINX00257558_Voltage.txt</t>
+    <t>cycle_17_3</t>
+  </si>
+  <si>
+    <t>ENGINX00280374_Output_2.txt</t>
   </si>
   <si>
     <t>Jaws1_E.txt</t>
   </si>
   <si>
-    <t>ENGINX00257590_Cryo_Left.txt</t>
+    <t>ENGINX00284420_Keithley2000.txt</t>
+  </si>
+  <si>
+    <t>cycle_17_4</t>
   </si>
   <si>
     <t>Jaws1_W.txt</t>
   </si>
   <si>
-    <t>ENGINX00257590_Cryo_Right.txt</t>
+    <t>ENGINX00284420_LoadCell.txt</t>
   </si>
   <si>
     <t>Jaws2_E.txt</t>
   </si>
   <si>
-    <t>ENGINX00257591_Read_Current.txt</t>
-  </si>
-  <si>
-    <t>sample_current</t>
-  </si>
-  <si>
     <t>Lamp.txt</t>
   </si>
   <si>
-    <t>ENGINX00257591_Read_Voltage.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00258498_furnace_rate.txt</t>
+    <t>ENGINX00286034_COUNT_RATE.txt</t>
   </si>
   <si>
     <t>Extensometer_TC.txt</t>
   </si>
   <si>
+    <t>cycle_18_1</t>
+  </si>
+  <si>
     <t>extensometer_temperatue</t>
   </si>
   <si>
-    <t>ENGINX00260062_Chi.txt</t>
-  </si>
-  <si>
-    <t>cycle_16_3</t>
+    <t>ENGINX00286034_COUNTS.txt</t>
   </si>
   <si>
     <t>Load_cell_TC.txt</t>
   </si>
   <si>
-    <t>Chi</t>
-  </si>
-  <si>
-    <t>ENGINX00260062_Phi.txt</t>
-  </si>
-  <si>
-    <t>Phi</t>
-  </si>
-  <si>
-    <t>ENGINX00263771_LoadcellTmp.txt</t>
-  </si>
-  <si>
-    <t>cycle_16_4</t>
-  </si>
-  <si>
-    <t>load_cell_temp</t>
-  </si>
-  <si>
-    <t>ENGINX00266670_Stress.txt</t>
-  </si>
-  <si>
-    <t>cycle_16_5</t>
-  </si>
-  <si>
-    <t>ENGINX00267621_Beam.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00269237.log;1</t>
-  </si>
-  <si>
-    <t>ENGINX00272232_dzero_TC.txt</t>
-  </si>
-  <si>
-    <t>cycle_17_1</t>
-  </si>
-  <si>
-    <t>ENGINX00272299_TC3.txt</t>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>ENGINX00286034_CURRENT.txt</t>
   </si>
   <si>
     <t>Hydraulics.txt</t>
   </si>
   <si>
-    <t>ENGINX00272299_TC4.txt</t>
+    <t>ENGINX00286034_GOODUAH.txt</t>
+  </si>
+  <si>
+    <t>good_micro_amp_hours</t>
   </si>
   <si>
     <t>Hydralics.txt</t>
   </si>
   <si>
-    <t>ENGINX00275375_ICPputlog.txt</t>
-  </si>
-  <si>
-    <t>cycle_17_2</t>
+    <t>ENGINX00286034_POS_MAX_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>max_rig_position</t>
   </si>
   <si>
     <t>Loacell.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_jaws1_hgap.txt</t>
+    <t>ENGINX00286034_POS_MIN_LIMIT.txt</t>
+  </si>
+  <si>
+    <t>min_rig_position</t>
   </si>
   <si>
     <t>Cryo_L.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_jaws2_hgap.txt</t>
-  </si>
-  <si>
     <t>measured_temperature_L</t>
   </si>
   <si>
+    <t>ENGINX00286034_S.txt</t>
+  </si>
+  <si>
     <t>Cryo_R.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_jaws3_hgap.txt</t>
-  </si>
-  <si>
     <t>measured_temperature_R</t>
   </si>
   <si>
-    <t>ENGINX00275777_jaws3_vgap.txt</t>
+    <t>slit_position</t>
   </si>
   <si>
     <t>BeamCurrent.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_North_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>north_colomators_h_set</t>
+    <t>ENGINX00286034_W.txt</t>
   </si>
   <si>
     <t>Furnace_rate.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_North_X_llim.txt</t>
-  </si>
-  <si>
-    <t>north_colomators_l_set</t>
-  </si>
-  <si>
     <t>W_Setpoint.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_North_X.txt</t>
-  </si>
-  <si>
-    <t>north_colomators_position</t>
-  </si>
-  <si>
-    <t>ENGINX00275777_S_position.txt</t>
+    <t>ENGINX00286034_X_lim.txt</t>
   </si>
   <si>
     <t>Output_Current.txt</t>
   </si>
   <si>
-    <t>slip_position</t>
+    <t>ENGINX00286034_X_speed.txt</t>
   </si>
   <si>
     <t>Output_Voltage.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_South_X_hlim.txt</t>
-  </si>
-  <si>
-    <t>south_colomators_h_set</t>
-  </si>
-  <si>
-    <t>ENGINX00275777_South_X_llim.txt</t>
-  </si>
-  <si>
     <t>Readback_voltage.txt</t>
   </si>
   <si>
-    <t>south_colomators_l_set</t>
-  </si>
-  <si>
-    <t>ENGINX00275777_South_X.txt</t>
-  </si>
-  <si>
-    <t>south_colomators_ position</t>
+    <t>ENGINX00287960_RampRate.txt</t>
+  </si>
+  <si>
+    <t>tempreture_ramp_rate</t>
   </si>
   <si>
     <t>Voltage.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_W_position.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00275777_X_position.txt</t>
+    <t>ENGINX00294939_NORTH_X_HLIM.TXT</t>
   </si>
   <si>
     <t>Cryo_Left.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_Y_position.txt</t>
-  </si>
-  <si>
     <t>Cryo_Right.txt</t>
   </si>
   <si>
-    <t>ENGINX00275777_Z_position.txt</t>
+    <t>ENGINX00296723_cycle_rbv.txt</t>
+  </si>
+  <si>
+    <t>cycle_18_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asked_cycles </t>
   </si>
   <si>
     <t>Read_Current.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_amplitude.txt</t>
-  </si>
-  <si>
-    <t>amplitude_data</t>
+    <t>ENGINX00297884_POSITION.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00298517_FURNACE.txt</t>
   </si>
   <si>
     <t>Read_Voltage.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_control_channel_string.txt</t>
+    <t>ENGINX00298517_RAMP_ON.txt</t>
+  </si>
+  <si>
+    <t>ENGINX00298517_RAMP_RATE.txt</t>
   </si>
   <si>
     <t>furnace_rate.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_control_channel.txt</t>
-  </si>
-  <si>
-    <t>constant_in_rig</t>
+    <t>ENGINX00303722_Inner.txt</t>
+  </si>
+  <si>
+    <t>cycle_18_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inner </t>
   </si>
   <si>
     <t>Chi.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_cycles.txt</t>
-  </si>
-  <si>
-    <t>cycles_of_rig</t>
+    <t>ENGINX00303722_Outer.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outer </t>
+  </si>
+  <si>
+    <t>ENGINX00306833_jaws1_vgap.txt</t>
   </si>
   <si>
     <t>Phi.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_frequency.txt</t>
-  </si>
-  <si>
-    <t>frequency_data</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_Max_output_1.txt</t>
+    <t>cycle_19_1</t>
+  </si>
+  <si>
+    <t>ENGINX00306833_jaws2_vgap.txt</t>
   </si>
   <si>
     <t>LoadcellTmp.txt</t>
   </si>
   <si>
-    <t>heat_output(%)</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_Max_output_2.txt</t>
-  </si>
-  <si>
     <t>Stress.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_Max_output_3.txt</t>
+    <t>exception_copy.log</t>
   </si>
   <si>
     <t>Beam.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_pos_step_time.txt</t>
-  </si>
-  <si>
-    <t>rig_step_time</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_position.txt</t>
+    <t>Shortcut to cycle_04_1.lnk</t>
   </si>
   <si>
     <t>log;1</t>
@@ -1307,93 +1520,39 @@
     <t>dzero_TC.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_Rampon_3.txt</t>
-  </si>
-  <si>
-    <t>temperature_ramp_status</t>
-  </si>
-  <si>
     <t>measured_temperature0</t>
   </si>
   <si>
-    <t>ENGINX00276086_Ramprate_3.txt</t>
-  </si>
-  <si>
     <t>TC3.txt</t>
   </si>
   <si>
     <t>measured_temperature3</t>
   </si>
   <si>
-    <t>ENGINX00276086_strain_step_time.txt</t>
-  </si>
-  <si>
     <t>TC4.txt</t>
   </si>
   <si>
-    <t>strain_step_time</t>
-  </si>
-  <si>
     <t>ICPputlog.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_stress_step_time.txt</t>
-  </si>
-  <si>
-    <t>stress_step_time</t>
-  </si>
-  <si>
     <t>C6_master_freq.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_Temp_1.txt</t>
-  </si>
-  <si>
     <t>C6_master_phase.txt</t>
   </si>
   <si>
-    <t>ENGINX00276086_Temp_2.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_Temp_3.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_wave_running.txt</t>
-  </si>
-  <si>
     <t>C6_slave_freq.txt</t>
   </si>
   <si>
-    <t>wave_running</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_wave_start.txt</t>
-  </si>
-  <si>
     <t>C6_slave_phase.txt</t>
   </si>
   <si>
-    <t>wave_start</t>
-  </si>
-  <si>
-    <t>ENGINX00276086_wave_type.txt</t>
-  </si>
-  <si>
     <t>C9_master_freq.txt</t>
   </si>
   <si>
-    <t>wave_type</t>
-  </si>
-  <si>
-    <t>ENGINX00276993_stressrig_go.txt</t>
-  </si>
-  <si>
     <t>C9_master_phase.txt</t>
   </si>
   <si>
-    <t>asked_stress</t>
-  </si>
-  <si>
     <t>C9_slave_freq.txt</t>
   </si>
   <si>
@@ -1403,265 +1562,106 @@
     <t>jaws1_hgap.txt</t>
   </si>
   <si>
-    <t>ENGINX00277208_Furnace_temp.txt</t>
-  </si>
-  <si>
     <t>jaws2_hgap.txt</t>
   </si>
   <si>
     <t>jaws3_hgap.txt</t>
   </si>
   <si>
-    <t>ENGINX00277632_position_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>asked_position</t>
-  </si>
-  <si>
     <t>jaws3_vgap.txt</t>
   </si>
   <si>
-    <t>ENGINX00277632_strain_sp_rbv.txt</t>
-  </si>
-  <si>
-    <t>asked_strain</t>
-  </si>
-  <si>
     <t>North_X.txt</t>
   </si>
   <si>
-    <t>ENGINX00277632_stress_sp_rbv.txt</t>
-  </si>
-  <si>
     <t>North_X_hlim.txt</t>
   </si>
   <si>
-    <t>ENGINX00279181_PIRot.txt</t>
-  </si>
-  <si>
-    <t>PIRot</t>
-  </si>
-  <si>
-    <t>ENGINX00279182.zip</t>
-  </si>
-  <si>
     <t>North_X_llim.txt</t>
   </si>
   <si>
-    <t>ENGINX00279273_DAE_lower_range.txt</t>
-  </si>
-  <si>
-    <t>DAE_lower_range</t>
-  </si>
-  <si>
     <t>South_X.txt</t>
   </si>
   <si>
-    <t>ENGINX00280374_Output_1.txt</t>
-  </si>
-  <si>
-    <t>cycle_17_3</t>
-  </si>
-  <si>
     <t>South_X_hlim.txt</t>
   </si>
   <si>
-    <t>ENGINX00280374_Output_2.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00284420_Keithley2000.txt</t>
-  </si>
-  <si>
     <t>South_X_llim.txt</t>
   </si>
   <si>
-    <t>cycle_17_4</t>
-  </si>
-  <si>
-    <t>ENGINX00284420_LoadCell.txt</t>
-  </si>
-  <si>
     <t>S_position.txt</t>
   </si>
   <si>
     <t>slit_ position</t>
   </si>
   <si>
-    <t>ENGINX00286034_COUNT_RATE.txt</t>
-  </si>
-  <si>
     <t>W_position.txt</t>
   </si>
   <si>
-    <t>cycle_18_1</t>
-  </si>
-  <si>
-    <t>ENGINX00286034_COUNTS.txt</t>
-  </si>
-  <si>
     <t>X_position.txt</t>
   </si>
   <si>
-    <t>counts</t>
-  </si>
-  <si>
-    <t>ENGINX00286034_CURRENT.txt</t>
-  </si>
-  <si>
-    <t>ENGINX00286034_GOODUAH.txt</t>
-  </si>
-  <si>
-    <t>good_micro_amp_hours</t>
-  </si>
-  <si>
-    <t>ENGINX00286034_POS_MAX_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>max_rig_position</t>
-  </si>
-  <si>
     <t>Y_position.txt</t>
   </si>
   <si>
-    <t>ENGINX00286034_POS_MIN_LIMIT.txt</t>
-  </si>
-  <si>
-    <t>min_rig_position</t>
-  </si>
-  <si>
     <t>Z_position.txt</t>
   </si>
   <si>
-    <t>ENGINX00286034_S.txt</t>
-  </si>
-  <si>
     <t>amplitude.txt</t>
   </si>
   <si>
-    <t>slit_position</t>
-  </si>
-  <si>
-    <t>ENGINX00286034_W.txt</t>
-  </si>
-  <si>
     <t>control_channel.txt</t>
   </si>
   <si>
-    <t>ENGINX00286034_X_lim.txt</t>
-  </si>
-  <si>
     <t>control_channel_string.txt</t>
   </si>
   <si>
-    <t>ENGINX00286034_X_speed.txt</t>
-  </si>
-  <si>
     <t>cycles.txt</t>
   </si>
   <si>
-    <t>ENGINX00287960_RampRate.txt</t>
-  </si>
-  <si>
-    <t>tempreture_ramp_rate</t>
-  </si>
-  <si>
     <t>frequency.txt</t>
   </si>
   <si>
-    <t>ENGINX00294939_NORTH_X_HLIM.TXT</t>
-  </si>
-  <si>
     <t>Max_output_1.txt</t>
   </si>
   <si>
-    <t>ENGINX00296723_cycle_rbv.txt</t>
-  </si>
-  <si>
     <t>heat_output_1(%)</t>
   </si>
   <si>
-    <t>cycle_18_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asked_cycles </t>
-  </si>
-  <si>
     <t>Max_output_2.txt</t>
   </si>
   <si>
     <t>heat_output_2(%)</t>
   </si>
   <si>
-    <t>ENGINX00297884_POSITION.txt</t>
-  </si>
-  <si>
     <t>Max_output_3.txt</t>
   </si>
   <si>
     <t>heat_output_3(%)</t>
   </si>
   <si>
-    <t>ENGINX00298517_FURNACE.txt</t>
-  </si>
-  <si>
     <t>position.txt</t>
   </si>
   <si>
-    <t>ENGINX00298517_RAMP_ON.txt</t>
-  </si>
-  <si>
     <t>pos_step_time.txt</t>
   </si>
   <si>
-    <t>ENGINX00298517_RAMP_RATE.txt</t>
-  </si>
-  <si>
     <t>Rampon_3.txt</t>
   </si>
   <si>
-    <t>ENGINX00303722_Inner.txt</t>
-  </si>
-  <si>
-    <t>cycle_18_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inner </t>
-  </si>
-  <si>
     <t>Ramprate_3.txt</t>
   </si>
   <si>
-    <t>ENGINX00303722_Outer.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">outer </t>
-  </si>
-  <si>
     <t>strain_step_time.txt</t>
   </si>
   <si>
-    <t>ENGINX00306833_jaws1_vgap.txt</t>
-  </si>
-  <si>
-    <t>cycle_19_1</t>
-  </si>
-  <si>
     <t>stress_step_time.txt</t>
   </si>
   <si>
-    <t>ENGINX00306833_jaws2_vgap.txt</t>
-  </si>
-  <si>
     <t>Temp_1.txt</t>
   </si>
   <si>
-    <t>exception_copy.log</t>
-  </si>
-  <si>
     <t>Temp_2.txt</t>
-  </si>
-  <si>
-    <t>Shortcut to cycle_04_1.lnk</t>
   </si>
   <si>
     <t>Temp_3.txt</t>
@@ -1810,10 +1810,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1860,2191 +1860,2189 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>50</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>134</v>
+        <v>50</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>147</v>
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>150</v>
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>163</v>
+        <v>91</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>139</v>
+        <v>91</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>185</v>
+        <v>268</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>187</v>
+        <v>270</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>17</v>
+        <v>113</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>129</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>147</v>
+        <v>129</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>67</v>
+        <v>129</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>207</v>
+        <v>143</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>88</v>
+        <v>143</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>235</v>
+        <v>318</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>91</v>
+        <v>143</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C98" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>242</v>
+        <v>143</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>88</v>
+        <v>155</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>91</v>
+        <v>155</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>242</v>
+        <v>155</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C104" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>242</v>
+        <v>171</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>270</v>
+        <v>171</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>274</v>
+        <v>171</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>277</v>
+        <v>171</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>281</v>
+        <v>171</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>284</v>
+        <v>171</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>287</v>
+        <v>171</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>288</v>
+        <v>378</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>290</v>
+        <v>171</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>292</v>
+        <v>384</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>293</v>
+        <v>171</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>256</v>
+        <v>171</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>67</v>
+        <v>171</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>171</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>309</v>
+        <v>406</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>147</v>
+        <v>205</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>319</v>
+        <v>416</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>150</v>
+        <v>205</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>278</v>
+        <v>205</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>64</v>
+        <v>205</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>68</v>
+        <v>205</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C130" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>91</v>
+        <v>205</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>88</v>
+        <v>205</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>297</v>
+        <v>205</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>347</v>
+        <v>239</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>304</v>
+        <v>239</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>308</v>
+        <v>245</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>308</v>
+        <v>245</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>45</v>
+        <v>245</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>373</v>
+        <v>245</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>374</v>
+        <v>457</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>376</v>
+        <v>245</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>10</v>
+        <v>255</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>17</v>
+        <v>260</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>328</v>
+        <v>264</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>390</v>
+        <v>467</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>331</v>
+        <v>264</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>334</v>
+        <v>264</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>401</v>
+        <v>473</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>373</v>
+        <v>264</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>403</v>
+        <v>474</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>376</v>
+        <v>264</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>342</v>
+        <v>264</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>334</v>
+        <v>264</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>321</v>
+        <v>264</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>351</v>
+        <v>289</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>353</v>
+        <v>289</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>356</v>
+        <v>296</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>102</v>
+        <v>300</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="3" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="3" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>433</v>
+        <v>307</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="3" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>436</v>
+        <v>307</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="3" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>53</v>
+        <v>307</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="3" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C163" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="C163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="3" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>118</v>
+        <v>315</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="3" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="3" t="s">
-        <v>449</v>
+        <v>509</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>124</v>
+        <v>315</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="3" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>126</v>
+        <v>315</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="3" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>129</v>
+        <v>315</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="3" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>131</v>
+        <v>315</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="3" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>134</v>
+        <v>315</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="3" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>136</v>
+        <v>315</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="3" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>88</v>
+        <v>315</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="3" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C173" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="3" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>105</v>
+        <v>315</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="3" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>37</v>
+        <v>315</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="3" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>380</v>
+        <v>315</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="3" t="s">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>383</v>
+        <v>315</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="3" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>386</v>
+        <v>315</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="3" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>397</v>
+        <v>315</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="3" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>392</v>
+        <v>315</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="3" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>395</v>
+        <v>315</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="3" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>490</v>
+        <v>315</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="3" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>17</v>
+        <v>315</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="3" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C184" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="3" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C185" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="3" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>25</v>
+        <v>315</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="3" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="3" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>412</v>
+        <v>315</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="3" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="3" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>418</v>
+        <v>315</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="3" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>521</v>
+        <v>315</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="3" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>525</v>
+        <v>315</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="3" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>528</v>
+        <v>315</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="3" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>427</v>
+        <v>315</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="3" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="3" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>439</v>
+        <v>315</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>442</v>
+        <v>315</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>147</v>
+        <v>315</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="3" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>150</v>
+        <v>315</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
@@ -4052,10 +4050,10 @@
         <v>550</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>436</v>
+        <v>315</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
@@ -4063,10 +4061,10 @@
         <v>551</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
@@ -4074,10 +4072,10 @@
         <v>552</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>453</v>
+        <v>315</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
@@ -4085,10 +4083,10 @@
         <v>553</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>456</v>
+        <v>315</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
@@ -4096,10 +4094,10 @@
         <v>554</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>459</v>
+        <v>315</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
@@ -4107,10 +4105,10 @@
         <v>555</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>147</v>
+        <v>315</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
@@ -4118,10 +4116,10 @@
         <v>556</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>467</v>
+        <v>315</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
@@ -4129,10 +4127,10 @@
         <v>557</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>470</v>
+        <v>315</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
@@ -4140,10 +4138,10 @@
         <v>558</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>459</v>
+        <v>315</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
@@ -4151,10 +4149,10 @@
         <v>559</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>475</v>
+        <v>315</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
@@ -4162,19 +4160,19 @@
         <v>560</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C213" s="1"/>
+        <v>315</v>
+      </c>
+      <c r="C213" s="2"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="3" t="s">
         <v>561</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
@@ -4182,25 +4180,25 @@
         <v>562</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C215" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="C215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="3" t="s">
         <v>563</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C216" s="1"/>
+        <v>428</v>
+      </c>
+      <c r="C216" s="2"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="3" t="s">
         <v>564</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C217" s="3"/>
     </row>
@@ -4209,10 +4207,10 @@
         <v>565</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
@@ -4220,10 +4218,10 @@
         <v>566</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
@@ -4231,7 +4229,7 @@
         <v>567</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C220" s="3"/>
     </row>
@@ -4240,7 +4238,7 @@
         <v>568</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C221" s="3"/>
     </row>
@@ -4249,10 +4247,10 @@
         <v>569</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
@@ -4260,10 +4258,10 @@
         <v>570</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
@@ -4271,10 +4269,10 @@
         <v>571</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
@@ -4282,10 +4280,10 @@
         <v>572</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
@@ -4293,10 +4291,10 @@
         <v>573</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
@@ -4304,7 +4302,7 @@
         <v>574</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C227" s="3"/>
     </row>
@@ -4313,7 +4311,7 @@
         <v>575</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C228" s="3"/>
     </row>
@@ -4322,10 +4320,10 @@
         <v>576</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
@@ -4333,10 +4331,10 @@
         <v>577</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
@@ -4344,10 +4342,10 @@
         <v>578</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
@@ -4355,10 +4353,10 @@
         <v>579</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
@@ -4366,10 +4364,10 @@
         <v>580</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>147</v>
+        <v>476</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
@@ -4377,10 +4375,10 @@
         <v>581</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
@@ -4388,10 +4386,10 @@
         <v>582</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
@@ -4399,10 +4397,10 @@
         <v>583</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
@@ -4410,10 +4408,10 @@
         <v>584</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
@@ -4421,10 +4419,10 @@
         <v>585</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
@@ -4432,10 +4430,10 @@
         <v>586</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1"/>
@@ -5227,77 +5225,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -5305,20 +5303,20 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5327,10 +5325,10 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -5338,18 +5336,18 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>29</v>
@@ -5357,254 +5355,254 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>29</v>
@@ -5612,10 +5610,10 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>29</v>
@@ -5623,461 +5621,461 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>29</v>
@@ -6085,10 +6083,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>29</v>
@@ -6096,32 +6094,32 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>29</v>
@@ -6129,10 +6127,10 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>29</v>
@@ -6140,51 +6138,51 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>3</v>
+        <v>155</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>29</v>
@@ -6192,10 +6190,10 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>29</v>
@@ -6203,249 +6201,249 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>262</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B109" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>29</v>
@@ -6453,10 +6451,10 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" t="s">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>29</v>
@@ -6464,345 +6462,345 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>304</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>244</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="B119" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="B121" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="B125" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="B126" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="B129" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="B130" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="B134" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" t="s">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="B135" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>353</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="B137" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="B138" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="B140" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="B141" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="B142" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="B143" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="B144" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="B145" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="B146" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>29</v>
@@ -6810,698 +6808,698 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" t="s">
-        <v>375</v>
+        <v>323</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>105</v>
+        <v>315</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="B148" t="s">
-        <v>368</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>37</v>
+        <v>315</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="B149" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="B150" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" t="s">
-        <v>385</v>
+        <v>336</v>
       </c>
       <c r="B151" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="B152" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="B153" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="B154" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="B155" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="B156" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B157" t="s">
-        <v>368</v>
-      </c>
-      <c r="C157" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" t="s">
-        <v>402</v>
+        <v>363</v>
       </c>
       <c r="B158" t="s">
-        <v>368</v>
-      </c>
-      <c r="C158" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="B159" t="s">
-        <v>368</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>25</v>
+        <v>315</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="B161" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="B162" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
       <c r="B163" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="B164" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="B165" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="B166" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
       <c r="A168" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="B168" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
       <c r="A169" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="B169" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
       <c r="A170" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="B170" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
       <c r="A172" t="s">
-        <v>437</v>
+        <v>388</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>439</v>
+        <v>390</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
       <c r="A173" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="B173" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="A175" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="B175" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="A176" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="A177" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B177" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="B179" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="A180" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B180" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" t="s">
-        <v>463</v>
+        <v>409</v>
       </c>
       <c r="B181" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="A182" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="A183" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>470</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="A184" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="A185" t="s">
-        <v>474</v>
+        <v>419</v>
       </c>
       <c r="B185" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="A186" t="s">
-        <v>476</v>
+        <v>422</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>479</v>
+        <v>425</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="A188" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="B188" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="A189" t="s">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="B189" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" t="s">
-        <v>485</v>
+        <v>431</v>
       </c>
       <c r="B190" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="A191" t="s">
-        <v>488</v>
+        <v>434</v>
       </c>
       <c r="B191" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="A192" t="s">
-        <v>491</v>
+        <v>437</v>
       </c>
       <c r="B192" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="A193" t="s">
-        <v>494</v>
+        <v>441</v>
       </c>
       <c r="B193" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>496</v>
+        <v>443</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="A194" t="s">
-        <v>497</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" t="s">
-        <v>498</v>
+        <v>446</v>
       </c>
       <c r="B195" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>499</v>
+        <v>447</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="A196" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="A197" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>504</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="A198" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="B198" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>508</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="A199" t="s">
-        <v>509</v>
+        <v>461</v>
       </c>
       <c r="B199" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="A200" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="B200" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="A201" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
       <c r="A202" t="s">
-        <v>515</v>
+        <v>469</v>
       </c>
       <c r="B202" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
       <c r="A203" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="B203" t="s">
-        <v>493</v>
+        <v>439</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="B204" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>523</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="B205" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="B206" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="B207" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
       <c r="A208" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="B208" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
       <c r="A209" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="B209" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="B210" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" t="s">
-        <v>542</v>
+        <v>491</v>
       </c>
       <c r="B211" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" t="s">
-        <v>545</v>
+        <v>494</v>
       </c>
       <c r="B212" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>29</v>
@@ -7509,18 +7507,18 @@
     </row>
     <row r="213" ht="15.75" customHeight="1">
       <c r="A213" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="B213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
       <c r="A214" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
